--- a/SeleniumOnline/src/datadriven/Login.xlsx
+++ b/SeleniumOnline/src/datadriven/Login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumOnline\SeleniumOnline\src\datadriven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkasu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4192E1EF-8FB7-4B6C-B1B6-43550A2E222F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6613C35-D5C7-4746-820B-287CFAEA3A2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -73,34 +73,34 @@
     <t>Verify the validation message when clicking on Sign In button without entering valid password</t>
   </si>
   <si>
+    <t>TestData1</t>
+  </si>
+  <si>
+    <t>TestData2</t>
+  </si>
+  <si>
+    <t>Please enter Username / Email Address.</t>
+  </si>
+  <si>
+    <t>Please enter Password.</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Invalid Username / Email Address or Password.</t>
+  </si>
+  <si>
+    <t>nkasu@frontier.com</t>
+  </si>
+  <si>
+    <t>seleniumuser@gmail.com</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>TestData1</t>
-  </si>
-  <si>
-    <t>TestData2</t>
-  </si>
-  <si>
     <t>Circulus - Login</t>
-  </si>
-  <si>
-    <t>Please enter Username / Email Address.</t>
-  </si>
-  <si>
-    <t>Please enter Password.</t>
-  </si>
-  <si>
-    <t>testuser@gmail.com</t>
-  </si>
-  <si>
-    <t>Test@123</t>
-  </si>
-  <si>
-    <t>Invalid Username / Email Address or Password.</t>
-  </si>
-  <si>
-    <t>nkasu@frontier.com</t>
   </si>
 </sst>
 </file>
@@ -205,7 +205,73 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -483,15 +549,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="86.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="86.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -528,7 +594,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -558,6 +624,26 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D5">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="SKIP">
+      <formula>NOT(ISERROR(SEARCH("SKIP",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -566,17 +652,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473221D3-E95E-4CC7-AF84-E1A3904A9CF0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -590,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -603,7 +689,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -614,10 +700,10 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -625,13 +711,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -640,13 +726,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1"/>
     </row>
